--- a/AutoTestV4/自动化测试待办事项.xlsx
+++ b/AutoTestV4/自动化测试待办事项.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>index</t>
   </si>
@@ -28,12 +28,15 @@
     <t>在All_regress_Cases测试集中指定运行海思部分的case或华力部分的case</t>
   </si>
   <si>
+    <t>已完成 20230411</t>
+  </si>
+  <si>
+    <t>时间比较,如果用时超过了15%,也要算仿真失败，比较总时间</t>
+  </si>
+  <si>
     <t>已完成，待合并</t>
   </si>
   <si>
-    <t>时间比较,如果用时超过了15%,也要算仿真失败，比较总时间</t>
-  </si>
-  <si>
     <t>时间比较,如果用时超过了15%,也要算仿真失败，比较各分析的wall-time 和 cpu time</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>增加一个--flaseasture 选项,默认为0,如果为1 ,则将 失败的结果判定为是正常的正确的结果,解决base版本测试器件数超过5000的例子。</t>
   </si>
   <si>
-    <t>已完成 20230411</t>
-  </si>
-  <si>
     <t>仿真失败、对比失败、没有对比的数据都要打印出来</t>
   </si>
   <si>
@@ -70,7 +70,19 @@
     <t>人工对比通过,脚本计算不通过（波形图对比一致，误差计算超过0.5%）</t>
   </si>
   <si>
-    <t>待解决(徐彬珏)</t>
+    <t>已完成 20230412（修改误差判定）</t>
+  </si>
+  <si>
+    <t>仿真失败、对比失败、没有对比的数据在回归脚本之后完成之后统一拷贝至指定目录</t>
+  </si>
+  <si>
+    <t>已完成 20230412</t>
+  </si>
+  <si>
+    <t>多线程比较结果,通过调用另一个py脚本的方式</t>
+  </si>
+  <si>
+    <t>暂定</t>
   </si>
 </sst>
 </file>
@@ -106,6 +118,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF0070C0"/>
       <name val="楷体"/>
       <charset val="134"/>
@@ -113,12 +131,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF00B050"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -1141,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1182,8 +1194,8 @@
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="37.5" spans="1:3">
@@ -1191,10 +1203,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:3">
@@ -1202,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:3">
@@ -1213,10 +1225,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:3">
@@ -1224,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9" t="s">
         <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="37.5" spans="1:3">
@@ -1235,10 +1247,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:3">
@@ -1248,8 +1260,8 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>9</v>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
@@ -1259,8 +1271,8 @@
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>9</v>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:3">
@@ -1270,8 +1282,30 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="37.5" spans="1:3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/AutoTestV4/自动化测试待办事项.xlsx
+++ b/AutoTestV4/自动化测试待办事项.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>回归自动化脚本人物列表</t>
+    <t>回归自动化脚本任务列表</t>
   </si>
   <si>
     <t>完成情况</t>
@@ -34,13 +34,13 @@
     <t>时间比较,如果用时超过了15%,也要算仿真失败，比较总时间</t>
   </si>
   <si>
-    <t>已完成，待合并</t>
+    <t>已完成 20230419 待合并</t>
   </si>
   <si>
     <t>时间比较,如果用时超过了15%,也要算仿真失败，比较各分析的wall-time 和 cpu time</t>
   </si>
   <si>
-    <t>进行中(吕世燕)</t>
+    <t>V5版本</t>
   </si>
   <si>
     <t>筛选部分case不执行</t>
@@ -79,10 +79,25 @@
     <t>已完成 20230412</t>
   </si>
   <si>
-    <t>多线程比较结果,通过调用另一个py脚本的方式</t>
-  </si>
-  <si>
-    <t>暂定</t>
+    <t>多线程比较结果,通过调用另一个py脚本的方式（或多进程的方式）</t>
+  </si>
+  <si>
+    <t>自动化脚本执行之前,删除原来老的测试集</t>
+  </si>
+  <si>
+    <t>已完成 20230420 待合并</t>
+  </si>
+  <si>
+    <t>每个case的out文件对比使用了多少时间,统计一个表 打印一下  耗时 xx 秒，为后续优化提供基础数据，每个case比较结束后打印一次</t>
+  </si>
+  <si>
+    <t>`-h 信息尽可能详细，各种参数的含义，以及一条完整的使用脚本的 语句</t>
+  </si>
+  <si>
+    <t>测试集采用字符串来替代，而不是使用数字，字符串简单，同样可以在 -h 中显示。比如 all / hspice/ rf /</t>
+  </si>
+  <si>
+    <t>自动打包脚本 autopackbtdsim.py</t>
   </si>
 </sst>
 </file>
@@ -1153,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1305,7 +1320,62 @@
         <v>21</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="1:3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="37.5" spans="1:3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="1:3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="37.5" spans="1:3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" spans="1:3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/AutoTestV4/自动化测试待办事项.xlsx
+++ b/AutoTestV4/自动化测试待办事项.xlsx
@@ -13,8 +13,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、在当前目录有三个文件夹放了三个可执行文件 btdsimpbin/btdsimP ./btdsimrfbin/btdsimrf ./btdsimbasebin/btdsim
+2、在 /home/mnt/lastversion 目录放了一个文件
+/home/mnt/lastversion/v3.7.4.r2
+这个文件的作用就是自动增加最后一位的数字，用来自动制作发包文件名的
+3、主要逻辑:
+	先读取 v3.7.4.r2 文件名，并增加最后一位 v3.7.4.r3
+	然后将 v3.7.4.r3 替换到 /home/mnt/lastversion/ 目录并替换 v3.7.4.r2
+	然后新建 v3.7.4.r3 目录
+	然后 将 1里面的三个可执行文件 放到这个 v3.7.4.r3 目录中
+	然后执行 如下这条命令 将这个文件夹拷贝到13服务器的btdsim目录
+	sshpass -p "publish" scp -r btdsim_v3.7.4.r3  publish@10.1.10.13:/home/samba/publish/btdsim/btdsim_v3.7.4.rx/v3.7.4.r3
+	如果读到的是v3.7.5.r 目录自动适配一下 v3.7.5.rx/</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>index</t>
   </si>
@@ -25,6 +68,9 @@
     <t>完成情况</t>
   </si>
   <si>
+    <t>负责人</t>
+  </si>
+  <si>
     <t>在All_regress_Cases测试集中指定运行海思部分的case或华力部分的case</t>
   </si>
   <si>
@@ -40,64 +86,85 @@
     <t>时间比较,如果用时超过了15%,也要算仿真失败，比较各分析的wall-time 和 cpu time</t>
   </si>
   <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>吕世燕</t>
+  </si>
+  <si>
+    <t>筛选部分case不执行</t>
+  </si>
+  <si>
+    <t>已完成 20230406</t>
+  </si>
+  <si>
+    <t>多线程比较结果</t>
+  </si>
+  <si>
+    <t>电压和电流误差计算：.max_diff &lt; 阈值 或 mape &lt; 0.5%</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>增加一个--bv 选项,默认为rf,如果为base ,则将 因器件数超过5000而报错的例子置为成功,如果为plus，则将因器件数超过100000而报错的例子置为成功</t>
+  </si>
+  <si>
+    <t>仿真失败、对比失败、没有对比的数据都要打印出来</t>
+  </si>
+  <si>
+    <t>自动化脚本执行之前,确保除了bench中没有out文件</t>
+  </si>
+  <si>
+    <t>人工对比通过,脚本计算不通过（波形图对比一致，误差计算超过0.5%）</t>
+  </si>
+  <si>
+    <t>已完成 20230412（修改误差判定）</t>
+  </si>
+  <si>
+    <t>仿真失败、对比失败、没有对比的数据在回归脚本之后完成之后统一拷贝至指定目录</t>
+  </si>
+  <si>
+    <t>已完成 20230412</t>
+  </si>
+  <si>
+    <t>多线程比较结果,通过调用另一个py脚本的方式（或多进程的方式）</t>
+  </si>
+  <si>
+    <t>徐彬珏</t>
+  </si>
+  <si>
+    <t>自动化脚本执行之前,删除原来老的测试集</t>
+  </si>
+  <si>
+    <t>已完成 20230420</t>
+  </si>
+  <si>
+    <t>每个case的out文件对比使用了多少时间,统计一个表 打印一下  耗时 xx 秒，为后续优化提供基础数据，每个case比较结束后打印一次</t>
+  </si>
+  <si>
+    <t>`-h 信息尽可能详细，各种参数的含义，以及一条完整的使用脚本的 语句</t>
+  </si>
+  <si>
+    <t>测试集采用字符串来替代，而不是使用数字，字符串简单，同样可以在 -h 中显示。比如 all / hspice/ rf /</t>
+  </si>
+  <si>
+    <t>自动打包脚本 autopackbtdsim.py</t>
+  </si>
+  <si>
     <t>V5版本</t>
   </si>
   <si>
-    <t>筛选部分case不执行</t>
-  </si>
-  <si>
-    <t>已完成 20230406</t>
-  </si>
-  <si>
-    <t>多线程比较结果</t>
-  </si>
-  <si>
-    <t>电压和电流误差计算：.max_diff &lt; 阈值 或 mape &lt; 0.5%</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>增加一个--flaseasture 选项,默认为0,如果为1 ,则将 失败的结果判定为是正常的正确的结果,解决base版本测试器件数超过5000的例子。</t>
-  </si>
-  <si>
-    <t>仿真失败、对比失败、没有对比的数据都要打印出来</t>
-  </si>
-  <si>
-    <t>自动化脚本执行之前,确保除了bench中没有out文件</t>
-  </si>
-  <si>
-    <t>人工对比通过,脚本计算不通过（波形图对比一致，误差计算超过0.5%）</t>
-  </si>
-  <si>
-    <t>已完成 20230412（修改误差判定）</t>
-  </si>
-  <si>
-    <t>仿真失败、对比失败、没有对比的数据在回归脚本之后完成之后统一拷贝至指定目录</t>
-  </si>
-  <si>
-    <t>已完成 20230412</t>
-  </si>
-  <si>
-    <t>多线程比较结果,通过调用另一个py脚本的方式（或多进程的方式）</t>
-  </si>
-  <si>
-    <t>自动化脚本执行之前,删除原来老的测试集</t>
-  </si>
-  <si>
-    <t>已完成 20230420</t>
-  </si>
-  <si>
-    <t>每个case的out文件对比使用了多少时间,统计一个表 打印一下  耗时 xx 秒，为后续优化提供基础数据，每个case比较结束后打印一次</t>
-  </si>
-  <si>
-    <t>`-h 信息尽可能详细，各种参数的含义，以及一条完整的使用脚本的 语句</t>
-  </si>
-  <si>
-    <t>测试集采用字符串来替代，而不是使用数字，字符串简单，同样可以在 -h 中显示。比如 all / hspice/ rf /</t>
-  </si>
-  <si>
-    <t>自动打包脚本 autopackbtdsim.py</t>
+    <t>仿真失败的文件，需要单独的打印信息打印出来， 放在 对比结果失败的前面来显示， 输出弄得格式和 对比失败格式一样，即可</t>
+  </si>
+  <si>
+    <t>已完成 20230504</t>
+  </si>
+  <si>
+    <t>优化结果比较,新增余弦相似度计算</t>
+  </si>
+  <si>
+    <t>已完成 20230425</t>
   </si>
 </sst>
 </file>
@@ -110,7 +177,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +211,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -286,6 +358,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -670,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,34 +765,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,98 +801,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +921,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,6 +985,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="5494655"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,19 +1298,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="83.8" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
+    <row r="1" ht="18.75" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1181,196 +1320,246 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="18.75" spans="1:3">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" spans="1:4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="18.75" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="37.5" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="37.5" spans="1:4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="18.75" spans="1:4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="18.75" spans="1:4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="37.5" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="56.25" spans="1:4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="18.75" spans="1:4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="18.75" spans="1:4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" ht="18.75" spans="1:4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="37.5" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="37.5" spans="1:4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" ht="18.75" spans="1:4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="1:4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="37.5" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" ht="37.5" spans="1:4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="18.75" spans="1:4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" ht="37.5" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="37.5" spans="1:4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="18.75" spans="1:4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" ht="37.5" spans="1:4">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" ht="18.75" spans="1:4">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/AutoTestV4/自动化测试待办事项.xlsx
+++ b/AutoTestV4/自动化测试待办事项.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V4待办事项" sheetId="1" r:id="rId1"/>
+    <sheet name="V5待办事项" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>index</t>
   </si>
@@ -152,7 +153,7 @@
     <t>自动打包脚本 autopackbtdsim.py</t>
   </si>
   <si>
-    <t>V5版本</t>
+    <t>研发</t>
   </si>
   <si>
     <t>仿真失败的文件，需要单独的打印信息打印出来， 放在 对比结果失败的前面来显示， 输出弄得格式和 对比失败格式一样，即可</t>
@@ -165,6 +166,21 @@
   </si>
   <si>
     <t>已完成 20230425</t>
+  </si>
+  <si>
+    <t>合并main分支流水线case验证时需要对仿真耗时（测试版本btdsim的运行时间）&gt; 100s的case做时间diff判断，如果diff&gt;+20%, 即测试版本比golden版本耗时增加超过20%以上，则报错</t>
+  </si>
+  <si>
+    <t>总测试集All_regress_cases包含所有的case，其他子集里面的case都是通过软链接创建的。例：</t>
+  </si>
+  <si>
+    <t>GUI界面：自主选择btdsim版本、需要回归的功能、时间对比等</t>
+  </si>
+  <si>
+    <t>测试集分类：BULK、CMG、EEHEMT、GaN&amp;GaAs、VBIC 等</t>
+  </si>
+  <si>
+    <t>对比失败出现None的情况需要打印出详细信息</t>
   </si>
 </sst>
 </file>
@@ -899,26 +915,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1298,263 +1314,277 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="83.8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83.8" style="7" customWidth="1"/>
     <col min="3" max="3" width="40.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="18.75" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="37.5" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" ht="18.75" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="18.75" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" ht="56.25" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" ht="18.75" spans="1:4">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" ht="18.75" spans="1:4">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" ht="18.75" spans="1:4">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" ht="37.5" spans="1:4">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" ht="18.75" spans="1:4">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:4">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" ht="37.5" spans="1:4">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" ht="18.75" spans="1:4">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" ht="37.5" spans="1:4">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" ht="18.75" spans="1:4">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" ht="37.5" spans="1:4">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" ht="18.75" spans="1:4">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" ht="56.25" spans="1:4">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1562,4 +1592,74 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="86.625" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="37.5" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" ht="18.75" spans="1:2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/AutoTestV4/自动化测试待办事项.xlsx
+++ b/AutoTestV4/自动化测试待办事项.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>index</t>
   </si>
@@ -78,6 +78,9 @@
     <t>已完成 20230411</t>
   </si>
   <si>
+    <t>吕世燕</t>
+  </si>
+  <si>
     <t>时间比较,如果用时超过了15%,也要算仿真失败，比较总时间</t>
   </si>
   <si>
@@ -90,15 +93,15 @@
     <t>进行中</t>
   </si>
   <si>
-    <t>吕世燕</t>
-  </si>
-  <si>
     <t>筛选部分case不执行</t>
   </si>
   <si>
     <t>已完成 20230406</t>
   </si>
   <si>
+    <t>徐彬珏</t>
+  </si>
+  <si>
     <t>多线程比较结果</t>
   </si>
   <si>
@@ -132,7 +135,7 @@
     <t>多线程比较结果,通过调用另一个py脚本的方式（或多进程的方式）</t>
   </si>
   <si>
-    <t>徐彬珏</t>
+    <t>已完成 20230508</t>
   </si>
   <si>
     <t>自动化脚本执行之前,删除原来老的测试集</t>
@@ -166,6 +169,9 @@
   </si>
   <si>
     <t>已完成 20230425</t>
+  </si>
+  <si>
+    <t>熊登</t>
   </si>
   <si>
     <t>合并main分支流水线case验证时需要对仿真耗时（测试版本btdsim的运行时间）&gt; 100s的case做时间diff判断，如果diff&gt;+20%, 即测试版本比golden版本耗时增加超过20%以上，则报错</t>
@@ -193,7 +199,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,11 +229,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="楷体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -769,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -781,33 +782,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,101 +821,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,9 +938,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,6 +1043,1329 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="732155"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="1208405"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="1446530"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="1684655"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="1922780"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="2637155"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="2875280"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="3113405"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="271145"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10267950" y="3827780"/>
+          <a:ext cx="309880" cy="271145"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1317,7 +2638,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C16" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1350,32 +2671,36 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" ht="18.75" spans="1:4">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="37.5" spans="1:4">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:4">
@@ -1388,104 +2713,120 @@
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" ht="18.75" spans="1:4">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" ht="18.75" spans="1:4">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" ht="56.25" spans="1:4">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" ht="18.75" spans="1:4">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" ht="18.75" spans="1:4">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" ht="18.75" spans="1:4">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" ht="37.5" spans="1:4">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" ht="18.75" spans="1:4">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="18.75" spans="1:4">
@@ -1493,58 +2834,66 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" ht="37.5" spans="1:4">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" ht="18.75" spans="1:4">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" ht="37.5" spans="1:4">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" ht="18.75" spans="1:4">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -1553,37 +2902,41 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" ht="18.75" spans="1:4">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21" ht="56.25" spans="1:4">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
@@ -1639,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:2">
@@ -1647,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:2">
@@ -1655,7 +3008,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
